--- a/Documentação/Planilhas/Conferencia_Purchase_DW.xlsx
+++ b/Documentação/Planilhas/Conferencia_Purchase_DW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1409" uniqueCount="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="362">
   <si>
     <t>nr_cia</t>
   </si>
@@ -1127,10 +1127,19 @@
     <t>está nulo na view</t>
   </si>
   <si>
-    <t>NR_REFERENCIA_FISCAL</t>
-  </si>
-  <si>
-    <t>na det</t>
+    <t>Sessão "tdrecl504m00l". Fazer o detalhamento da Referência Fiscal desejada. Na aba superior Geral, seção "Dados Fiscais" verificar se "Origem da Mercadoria" é "Estrangeiro com Importação Direta" ou "Estrangeiro com Importação Direta-CAMEX". Se for, na aba inferior "Imposto por linha rec fiscal", pegar a informação da coluna "Valor" onde o Tipo de Imposto é PIS</t>
+  </si>
+  <si>
+    <t>Sessão "tdrecl504m00l". Fazer o detalhamento da Referência Fiscal desejada. Na aba superior Geral, seção "Dados Fiscais" verificar se "Origem da Mercadoria" é "Estrangeiro com Importação Direta" ou "Estrangeiro com Importação Direta-CAMEX". Se for, na aba inferior "Imposto por linha rec fiscal", pegar a informação da coluna "Valor" onde o Tipo de Imposto é COFINS</t>
+  </si>
+  <si>
+    <t>Sessão "tdrecl504m00l". Fazer o detalhamento da referência Fiscal desejada. Na aba inferior "Linhas" detalhar a linha apresentada. Na aba superior Geral, seção "Dados Fiscais" verificar se "Origem da Mercadoria" é "Estrangeiro com Importação Direta" ou "Estrangeiro com Importação Direta-CAMEX". Se for, na aba "Outros", seção "Despesas [Valores Rateados]"  pegar a informação de "Frete"</t>
+  </si>
+  <si>
+    <t>Sessão "tdrecl504m00l". Fazer o detalhamento da referência Fiscal desejada. Na aba inferior "Linhas" detalhar a linha apresentada. Na aba superior Geral, seção "Dados Fiscais" verificar se "Origem da Mercadoria" é "Estrangeiro com Importação Direta" ou "Estrangeiro com Importação Direta-CAMEX". Se for, na aba "Geral", seção "Dados de Compra"  pegar a informação de "Preço de Custo"</t>
+  </si>
+  <si>
+    <t>Não consegui mapear pelas telas do LN</t>
   </si>
 </sst>
 </file>
@@ -1168,7 +1177,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1211,8 +1220,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFA7E7E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1261,11 +1276,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1287,6 +1320,30 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1299,32 +1356,17 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2042,9 +2084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
+    <sheetView topLeftCell="Q1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L19" sqref="L19:L24"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3191,253 +3233,265 @@
       <c r="X17" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="11.25" customHeight="1">
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="18" t="s">
+      <c r="F19" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="G19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="18" t="s">
+      <c r="H19" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="18" t="s">
+      <c r="J19" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="18" t="s">
+      <c r="K19" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="18" t="s">
+      <c r="L19" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="14" t="s">
+      <c r="M19" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="13" t="s">
+      <c r="N19" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="O19" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="14" t="s">
+      <c r="P19" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="Q19" s="17" t="s">
+      <c r="Q19" s="16" t="s">
         <v>113</v>
       </c>
-      <c r="R19" s="16" t="s">
+      <c r="R19" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="S19" s="10" t="s">
+      <c r="S19" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="T19" s="12" t="s">
+      <c r="T19" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="U19" s="13" t="s">
+      <c r="U19" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="V19" s="14" t="s">
+      <c r="V19" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="W19" s="15" t="s">
+      <c r="W19" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="X19" s="19" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="18"/>
-      <c r="L20" s="18"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="17"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="10"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="14"/>
-      <c r="W20" s="15"/>
-      <c r="X20" s="11"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="14"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="21"/>
+      <c r="X20" s="19"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="18"/>
-      <c r="L21" s="18"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="17"/>
-      <c r="R21" s="16"/>
-      <c r="S21" s="10"/>
-      <c r="T21" s="12"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="14"/>
-      <c r="W21" s="15"/>
-      <c r="X21" s="11"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="16"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="14"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="21"/>
+      <c r="X21" s="19"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="18"/>
-      <c r="L22" s="18"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="17"/>
-      <c r="R22" s="16"/>
-      <c r="S22" s="10"/>
-      <c r="T22" s="12"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="14"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="11"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="12"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="16"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="14"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="21"/>
+      <c r="X22" s="19"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="B23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="18"/>
-      <c r="L23" s="18"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
-      <c r="Q23" s="17"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="12"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="Q23" s="16"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="14"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="15"/>
-      <c r="X23" s="11"/>
+      <c r="W23" s="21"/>
+      <c r="X23" s="19"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="B24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
-      <c r="Q24" s="17"/>
-      <c r="T24" s="12"/>
-      <c r="U24" s="13"/>
-      <c r="W24" s="15"/>
-      <c r="X24" s="11"/>
+      <c r="B24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="12"/>
+      <c r="N24" s="14"/>
+      <c r="O24" s="14"/>
+      <c r="Q24" s="16"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="14"/>
+      <c r="W24" s="21"/>
+      <c r="X24" s="19"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="B25" s="18"/>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="Q25" s="17"/>
+      <c r="B25" s="13"/>
+      <c r="N25" s="14"/>
+      <c r="O25" s="14"/>
+      <c r="Q25" s="16"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="13"/>
+      <c r="U25" s="14"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="11"/>
+      <c r="W25" s="21"/>
+      <c r="X25" s="19"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="B26" s="18"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="Q26" s="17"/>
+      <c r="B26" s="13"/>
+      <c r="N26" s="14"/>
+      <c r="O26" s="14"/>
+      <c r="Q26" s="16"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="13"/>
+      <c r="U26" s="14"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="15"/>
+      <c r="W26" s="21"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="B27" s="18"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="Q27" s="17"/>
+      <c r="B27" s="13"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="Q27" s="16"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="13"/>
+      <c r="U27" s="14"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="15"/>
+      <c r="W27" s="21"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="B28" s="18"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="Q28" s="17"/>
+      <c r="B28" s="13"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="Q28" s="16"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="13"/>
+      <c r="U28" s="14"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="15"/>
+      <c r="W28" s="21"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="B29" s="18"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="Q29" s="17"/>
+      <c r="B29" s="13"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="Q29" s="16"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="13"/>
+      <c r="U29" s="14"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="15"/>
+      <c r="W29" s="21"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="Q30" s="17"/>
-      <c r="W30" s="15"/>
+      <c r="Q30" s="16"/>
+      <c r="W30" s="21"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="Q31" s="17"/>
-      <c r="W31" s="15"/>
+      <c r="Q31" s="16"/>
+      <c r="W31" s="21"/>
     </row>
     <row r="32" spans="1:24">
-      <c r="W32" s="15"/>
+      <c r="W32" s="21"/>
     </row>
     <row r="33" spans="17:23">
-      <c r="Q33" s="9" t="s">
+      <c r="Q33" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="W33" s="15"/>
+      <c r="W33" s="21"/>
     </row>
     <row r="34" spans="17:23">
-      <c r="Q34" s="9"/>
+      <c r="Q34" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="S19:S22"/>
+    <mergeCell ref="X19:X25"/>
+    <mergeCell ref="T19:T24"/>
+    <mergeCell ref="U19:U29"/>
+    <mergeCell ref="V19:V22"/>
+    <mergeCell ref="W19:W33"/>
+    <mergeCell ref="N19:N29"/>
+    <mergeCell ref="O19:O29"/>
+    <mergeCell ref="P19:P22"/>
+    <mergeCell ref="R19:R22"/>
+    <mergeCell ref="Q19:Q31"/>
     <mergeCell ref="M19:M24"/>
     <mergeCell ref="E19:E22"/>
     <mergeCell ref="D19:D22"/>
@@ -3449,18 +3503,6 @@
     <mergeCell ref="J19:J24"/>
     <mergeCell ref="K19:K24"/>
     <mergeCell ref="L19:L24"/>
-    <mergeCell ref="N19:N29"/>
-    <mergeCell ref="O19:O29"/>
-    <mergeCell ref="P19:P22"/>
-    <mergeCell ref="R19:R22"/>
-    <mergeCell ref="Q19:Q31"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="S19:S22"/>
-    <mergeCell ref="X19:X25"/>
-    <mergeCell ref="T19:T24"/>
-    <mergeCell ref="U19:U29"/>
-    <mergeCell ref="V19:V22"/>
-    <mergeCell ref="W19:W33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3469,17 +3511,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AR37"/>
+  <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN23" sqref="AN23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ25" sqref="AQ25:AQ33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="20" style="3" customWidth="1"/>
     <col min="4" max="4" width="20.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="21" style="3" customWidth="1"/>
@@ -3510,146 +3552,146 @@
     <col min="33" max="33" width="22.85546875" style="3" customWidth="1"/>
     <col min="34" max="34" width="24.42578125" style="3" customWidth="1"/>
     <col min="35" max="35" width="25.28515625" style="3" customWidth="1"/>
-    <col min="36" max="36" width="15.7109375" style="3" customWidth="1"/>
-    <col min="37" max="37" width="20.140625" style="3" customWidth="1"/>
-    <col min="38" max="38" width="18.7109375" style="3" customWidth="1"/>
-    <col min="39" max="42" width="15.7109375" style="3" customWidth="1"/>
+    <col min="36" max="36" width="34.28515625" style="3" customWidth="1"/>
+    <col min="37" max="37" width="31.7109375" style="3" customWidth="1"/>
+    <col min="38" max="39" width="33.85546875" style="3" customWidth="1"/>
+    <col min="40" max="42" width="15.7109375" style="3" customWidth="1"/>
     <col min="43" max="43" width="42.140625" style="3" customWidth="1"/>
     <col min="44" max="44" width="26.140625" style="3" customWidth="1"/>
     <col min="45" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="20" t="s">
+      <c r="P1" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="20" t="s">
+      <c r="X1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="20" t="s">
+      <c r="Y1" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="20" t="s">
+      <c r="Z1" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="20" t="s">
+      <c r="AA1" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="20" t="s">
+      <c r="AB1" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="20" t="s">
+      <c r="AC1" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AD1" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="AE1" s="20" t="s">
+      <c r="AE1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="AF1" s="20" t="s">
+      <c r="AF1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="AG1" s="20" t="s">
+      <c r="AG1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="AH1" s="20" t="s">
+      <c r="AH1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="AI1" s="20" t="s">
+      <c r="AI1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="AJ1" s="20" t="s">
+      <c r="AJ1" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="AK1" s="20" t="s">
+      <c r="AK1" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AM1" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="AN1" s="20" t="s">
+      <c r="AN1" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="AO1" s="20" t="s">
+      <c r="AO1" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="AP1" s="20" t="s">
+      <c r="AP1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="AQ1" s="20" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="AR1" s="20" t="s">
+      <c r="AR1" s="10" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5045,7 +5087,7 @@
       <c r="Q12" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="R12" s="19" t="s">
+      <c r="R12" s="9" t="s">
         <v>322</v>
       </c>
       <c r="S12" s="3" t="s">
@@ -6468,412 +6510,502 @@
       </c>
     </row>
     <row r="25" spans="1:44" ht="11.25" customHeight="1">
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="16" t="s">
         <v>325</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="D25" s="16" t="s">
+      <c r="D25" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="E25" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="G25" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="H25" s="18" t="s">
+      <c r="H25" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="I25" s="14" t="s">
+      <c r="I25" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="J25" s="18" t="s">
+      <c r="J25" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="K25" s="14" t="s">
+      <c r="K25" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="L25" s="18" t="s">
+      <c r="L25" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="N25" s="18" t="s">
+      <c r="N25" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="O25" s="18" t="s">
+      <c r="O25" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="P25" s="18" t="s">
+      <c r="P25" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="Q25" s="17" t="s">
+      <c r="Q25" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="R25" s="17" t="s">
+      <c r="R25" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="S25" s="17" t="s">
+      <c r="S25" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="T25" s="17" t="s">
+      <c r="T25" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="U25" s="17" t="s">
+      <c r="U25" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="V25" s="17" t="s">
+      <c r="V25" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="W25" s="17" t="s">
+      <c r="W25" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="X25" s="17" t="s">
+      <c r="X25" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="Y25" s="17" t="s">
+      <c r="Y25" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="Z25" s="17" t="s">
+      <c r="Z25" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="AA25" s="11" t="s">
+      <c r="AA25" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="AC25" s="11" t="s">
+      <c r="AB25" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="AD25" s="11" t="s">
+      <c r="AC25" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="AE25" s="18" t="s">
+      <c r="AD25" s="19" t="s">
+        <v>356</v>
+      </c>
+      <c r="AE25" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="AF25" s="17" t="s">
+      <c r="AF25" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="AG25" s="17" t="s">
+      <c r="AG25" s="16" t="s">
         <v>348</v>
       </c>
-      <c r="AH25" s="17" t="s">
+      <c r="AH25" s="16" t="s">
         <v>349</v>
       </c>
-      <c r="AI25" s="17" t="s">
+      <c r="AI25" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="AQ25" s="17" t="s">
+      <c r="AJ25" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="AK25" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="AL25" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM25" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="AN25" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="AO25" s="23"/>
+      <c r="AP25" s="24"/>
+      <c r="AQ25" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="AR25" s="17" t="s">
+      <c r="AR25" s="16" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="26" spans="1:44">
-      <c r="B26" s="17"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="14"/>
-      <c r="L26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="O26" s="18"/>
-      <c r="P26" s="18"/>
-      <c r="Q26" s="17"/>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-      <c r="X26" s="17"/>
-      <c r="Y26" s="17"/>
-      <c r="Z26" s="17"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="18"/>
-      <c r="AF26" s="17"/>
-      <c r="AG26" s="17"/>
-      <c r="AH26" s="17"/>
-      <c r="AI26" s="17"/>
-      <c r="AQ26" s="17"/>
-      <c r="AR26" s="17"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="12"/>
+      <c r="L26" s="13"/>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="16"/>
+      <c r="R26" s="16"/>
+      <c r="S26" s="16"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
+      <c r="W26" s="16"/>
+      <c r="X26" s="16"/>
+      <c r="Y26" s="16"/>
+      <c r="Z26" s="16"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="16"/>
+      <c r="AG26" s="16"/>
+      <c r="AH26" s="16"/>
+      <c r="AI26" s="16"/>
+      <c r="AJ26" s="16"/>
+      <c r="AK26" s="16"/>
+      <c r="AL26" s="16"/>
+      <c r="AM26" s="16"/>
+      <c r="AN26" s="22"/>
+      <c r="AO26" s="23"/>
+      <c r="AP26" s="24"/>
+      <c r="AQ26" s="16"/>
+      <c r="AR26" s="16"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="B27" s="17"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="18"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="14"/>
-      <c r="L27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="O27" s="18"/>
-      <c r="P27" s="18"/>
-      <c r="Q27" s="17"/>
-      <c r="R27" s="17"/>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="17"/>
-      <c r="X27" s="17"/>
-      <c r="Y27" s="17"/>
-      <c r="Z27" s="17"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="18"/>
-      <c r="AF27" s="17"/>
-      <c r="AG27" s="17"/>
-      <c r="AH27" s="17"/>
-      <c r="AI27" s="17"/>
-      <c r="AQ27" s="17"/>
-      <c r="AR27" s="17"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="12"/>
+      <c r="L27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="16"/>
+      <c r="R27" s="16"/>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
+      <c r="W27" s="16"/>
+      <c r="X27" s="16"/>
+      <c r="Y27" s="16"/>
+      <c r="Z27" s="16"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="16"/>
+      <c r="AG27" s="16"/>
+      <c r="AH27" s="16"/>
+      <c r="AI27" s="16"/>
+      <c r="AJ27" s="16"/>
+      <c r="AK27" s="16"/>
+      <c r="AL27" s="16"/>
+      <c r="AM27" s="16"/>
+      <c r="AN27" s="22"/>
+      <c r="AO27" s="23"/>
+      <c r="AP27" s="24"/>
+      <c r="AQ27" s="16"/>
+      <c r="AR27" s="16"/>
     </row>
     <row r="28" spans="1:44">
-      <c r="B28" s="17"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="17"/>
-      <c r="R28" s="17"/>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="17"/>
-      <c r="X28" s="17"/>
-      <c r="Y28" s="17"/>
-      <c r="Z28" s="17"/>
-      <c r="AA28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="17"/>
-      <c r="AG28" s="17"/>
-      <c r="AH28" s="17"/>
-      <c r="AI28" s="17"/>
-      <c r="AQ28" s="17"/>
-      <c r="AR28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="12"/>
+      <c r="L28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="16"/>
+      <c r="R28" s="16"/>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
+      <c r="W28" s="16"/>
+      <c r="X28" s="16"/>
+      <c r="Y28" s="16"/>
+      <c r="Z28" s="16"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="16"/>
+      <c r="AG28" s="16"/>
+      <c r="AH28" s="16"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
+      <c r="AK28" s="16"/>
+      <c r="AL28" s="16"/>
+      <c r="AM28" s="16"/>
+      <c r="AN28" s="22"/>
+      <c r="AO28" s="23"/>
+      <c r="AP28" s="24"/>
+      <c r="AQ28" s="16"/>
+      <c r="AR28" s="16"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="B29" s="17"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="17"/>
-      <c r="R29" s="17"/>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="17"/>
-      <c r="X29" s="17"/>
-      <c r="Y29" s="17"/>
-      <c r="Z29" s="17"/>
-      <c r="AA29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="17"/>
-      <c r="AG29" s="17"/>
-      <c r="AH29" s="17"/>
-      <c r="AI29" s="17"/>
-      <c r="AQ29" s="17"/>
-      <c r="AR29" s="17"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="12"/>
+      <c r="L29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="16"/>
+      <c r="R29" s="16"/>
+      <c r="S29" s="16"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
+      <c r="W29" s="16"/>
+      <c r="X29" s="16"/>
+      <c r="Y29" s="16"/>
+      <c r="Z29" s="16"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="16"/>
+      <c r="AG29" s="16"/>
+      <c r="AH29" s="16"/>
+      <c r="AI29" s="16"/>
+      <c r="AJ29" s="16"/>
+      <c r="AK29" s="16"/>
+      <c r="AL29" s="16"/>
+      <c r="AM29" s="16"/>
+      <c r="AN29" s="22"/>
+      <c r="AO29" s="23"/>
+      <c r="AP29" s="24"/>
+      <c r="AQ29" s="16"/>
+      <c r="AR29" s="16"/>
     </row>
     <row r="30" spans="1:44">
-      <c r="B30" s="17"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="17"/>
-      <c r="R30" s="17"/>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="17"/>
-      <c r="X30" s="17"/>
-      <c r="Y30" s="17"/>
-      <c r="Z30" s="17"/>
-      <c r="AA30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="17"/>
-      <c r="AG30" s="17"/>
-      <c r="AH30" s="17"/>
-      <c r="AI30" s="17"/>
-      <c r="AQ30" s="17"/>
-      <c r="AR30" s="17"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="12"/>
+      <c r="L30" s="13"/>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="16"/>
+      <c r="R30" s="16"/>
+      <c r="S30" s="16"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
+      <c r="W30" s="16"/>
+      <c r="X30" s="16"/>
+      <c r="Y30" s="16"/>
+      <c r="Z30" s="16"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="16"/>
+      <c r="AG30" s="16"/>
+      <c r="AH30" s="16"/>
+      <c r="AI30" s="16"/>
+      <c r="AJ30" s="16"/>
+      <c r="AK30" s="16"/>
+      <c r="AL30" s="16"/>
+      <c r="AM30" s="16"/>
+      <c r="AN30" s="22"/>
+      <c r="AO30" s="23"/>
+      <c r="AP30" s="24"/>
+      <c r="AQ30" s="16"/>
+      <c r="AR30" s="16"/>
     </row>
     <row r="31" spans="1:44">
-      <c r="B31" s="17"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="17"/>
-      <c r="X31" s="17"/>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="18"/>
-      <c r="AF31" s="17"/>
-      <c r="AG31" s="17"/>
-      <c r="AH31" s="17"/>
-      <c r="AI31" s="17"/>
-      <c r="AQ31" s="17"/>
-      <c r="AR31" s="17"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="16"/>
+      <c r="R31" s="16"/>
+      <c r="S31" s="16"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
+      <c r="W31" s="16"/>
+      <c r="X31" s="16"/>
+      <c r="Y31" s="16"/>
+      <c r="Z31" s="16"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="16"/>
+      <c r="AG31" s="16"/>
+      <c r="AH31" s="16"/>
+      <c r="AI31" s="16"/>
+      <c r="AJ31" s="16"/>
+      <c r="AK31" s="16"/>
+      <c r="AL31" s="16"/>
+      <c r="AM31" s="16"/>
+      <c r="AN31" s="22"/>
+      <c r="AO31" s="23"/>
+      <c r="AP31" s="24"/>
+      <c r="AQ31" s="16"/>
+      <c r="AR31" s="16"/>
     </row>
     <row r="32" spans="1:44">
-      <c r="B32" s="17"/>
-      <c r="J32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="O32" s="18"/>
-      <c r="P32" s="18"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="18"/>
-      <c r="AF32" s="17"/>
-      <c r="AG32" s="17"/>
-      <c r="AH32" s="17"/>
-      <c r="AI32" s="17"/>
-      <c r="AQ32" s="17"/>
-      <c r="AR32" s="17"/>
-    </row>
-    <row r="33" spans="2:44">
-      <c r="B33" s="17"/>
-      <c r="F33" s="21" t="s">
+      <c r="J32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+      <c r="S32" s="16"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
+      <c r="W32" s="16"/>
+      <c r="X32" s="16"/>
+      <c r="Y32" s="16"/>
+      <c r="Z32" s="16"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="16"/>
+      <c r="AG32" s="16"/>
+      <c r="AH32" s="16"/>
+      <c r="AI32" s="16"/>
+      <c r="AJ32" s="16"/>
+      <c r="AK32" s="16"/>
+      <c r="AL32" s="16"/>
+      <c r="AM32" s="16"/>
+      <c r="AN32" s="22"/>
+      <c r="AO32" s="23"/>
+      <c r="AP32" s="24"/>
+      <c r="AQ32" s="16"/>
+      <c r="AR32" s="16"/>
+    </row>
+    <row r="33" spans="6:44">
+      <c r="F33" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="J33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="O33" s="18"/>
-      <c r="P33" s="18"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="17"/>
-      <c r="X33" s="17"/>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="17"/>
-      <c r="AG33" s="17"/>
-      <c r="AH33" s="17"/>
-      <c r="AI33" s="17"/>
-      <c r="AQ33" s="17"/>
-      <c r="AR33" s="17"/>
-    </row>
-    <row r="34" spans="2:44" ht="101.25">
-      <c r="B34" s="17"/>
+      <c r="J33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+      <c r="S33" s="16"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
+      <c r="W33" s="16"/>
+      <c r="X33" s="16"/>
+      <c r="Y33" s="16"/>
+      <c r="Z33" s="16"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="16"/>
+      <c r="AG33" s="16"/>
+      <c r="AH33" s="16"/>
+      <c r="AI33" s="16"/>
+      <c r="AJ33" s="16"/>
+      <c r="AK33" s="16"/>
+      <c r="AL33" s="16"/>
+      <c r="AM33" s="16"/>
+      <c r="AN33" s="22"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="24"/>
+      <c r="AQ33" s="16"/>
+      <c r="AR33" s="16"/>
+    </row>
+    <row r="34" spans="6:44" ht="101.25">
       <c r="F34" s="8" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="2:44">
-      <c r="B35" s="17"/>
-    </row>
-    <row r="36" spans="2:44">
-      <c r="B36" s="17"/>
-    </row>
-    <row r="37" spans="2:44">
-      <c r="B37" s="17"/>
-    </row>
   </sheetData>
-  <mergeCells count="34">
+  <mergeCells count="40">
+    <mergeCell ref="AM25:AM33"/>
+    <mergeCell ref="AB25:AB33"/>
+    <mergeCell ref="AN25:AP33"/>
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="AK25:AK33"/>
+    <mergeCell ref="AL25:AL33"/>
+    <mergeCell ref="AJ25:AJ33"/>
+    <mergeCell ref="K25:K31"/>
+    <mergeCell ref="L25:L33"/>
+    <mergeCell ref="N25:N33"/>
+    <mergeCell ref="E25:E31"/>
+    <mergeCell ref="C25:C31"/>
+    <mergeCell ref="D25:D31"/>
+    <mergeCell ref="G25:G31"/>
+    <mergeCell ref="I25:I31"/>
+    <mergeCell ref="J25:J33"/>
+    <mergeCell ref="R25:R33"/>
+    <mergeCell ref="W25:W33"/>
+    <mergeCell ref="X25:X33"/>
+    <mergeCell ref="Y25:Y33"/>
+    <mergeCell ref="O25:O33"/>
+    <mergeCell ref="P25:P33"/>
+    <mergeCell ref="Q25:Q33"/>
+    <mergeCell ref="T25:T33"/>
+    <mergeCell ref="U25:U33"/>
     <mergeCell ref="AH25:AH33"/>
     <mergeCell ref="AR25:AR33"/>
     <mergeCell ref="S25:S33"/>
     <mergeCell ref="AI25:AI33"/>
-    <mergeCell ref="B25:B37"/>
     <mergeCell ref="H25:H31"/>
     <mergeCell ref="F25:F31"/>
     <mergeCell ref="AQ25:AQ33"/>
@@ -6885,24 +7017,6 @@
     <mergeCell ref="AF25:AF33"/>
     <mergeCell ref="AG25:AG33"/>
     <mergeCell ref="V25:V33"/>
-    <mergeCell ref="R25:R33"/>
-    <mergeCell ref="W25:W33"/>
-    <mergeCell ref="X25:X33"/>
-    <mergeCell ref="Y25:Y33"/>
-    <mergeCell ref="O25:O33"/>
-    <mergeCell ref="P25:P33"/>
-    <mergeCell ref="Q25:Q33"/>
-    <mergeCell ref="T25:T33"/>
-    <mergeCell ref="U25:U33"/>
-    <mergeCell ref="K25:K31"/>
-    <mergeCell ref="L25:L33"/>
-    <mergeCell ref="N25:N33"/>
-    <mergeCell ref="E25:E31"/>
-    <mergeCell ref="C25:C31"/>
-    <mergeCell ref="D25:D31"/>
-    <mergeCell ref="G25:G31"/>
-    <mergeCell ref="I25:I31"/>
-    <mergeCell ref="J25:J33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documentação/Planilhas/Conferencia_Purchase_DW.xlsx
+++ b/Documentação/Planilhas/Conferencia_Purchase_DW.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1270" uniqueCount="325">
   <si>
     <t>nr_cia</t>
   </si>
@@ -358,11 +358,6 @@
   </si>
   <si>
     <t>Não tem dados para NR_SEQ</t>
-  </si>
-  <si>
-    <t>Sessão "whwmd4300m000" e Informa o item desejado na segunda lacuna da coluna Item. Seleciona o item e no menu Specific, seleciona Inventário e depois Inventário de Armazém
-Serão apresentado os armazéns que possuem o item. Pedir o detalhamento do armazém correspondente ao Depto de compras que vendeu o item.
-Na aba "Datas/Preços", seção "Fixas Preço", pegar a informação de "MAUC (por armazém)"</t>
   </si>
   <si>
     <t>Em processamento</t>
@@ -381,12 +376,6 @@
 Para os itens que já foram entregues, precisamos ver a aba Recebimento e verificar se os itens estão "Rec. Final" ticado. Se itver ficará como  Liquidado = L</t>
   </si>
   <si>
-    <t>Verificar se a regra de conferência com o LN está correta</t>
-  </si>
-  <si>
-    <t>Não encontrei no LN essa data</t>
-  </si>
-  <si>
     <t>C20000237</t>
   </si>
   <si>
@@ -417,9 +406,6 @@
     <t>C20000303</t>
   </si>
   <si>
-    <t>Não consegui identificar a regra utilizada para gerar essa informação</t>
-  </si>
-  <si>
     <t>nr_nf</t>
   </si>
   <si>
@@ -540,66 +526,21 @@
     <t>1176.00</t>
   </si>
   <si>
-    <t>211.68</t>
-  </si>
-  <si>
-    <t>19.40</t>
-  </si>
-  <si>
-    <t>89.38</t>
-  </si>
-  <si>
     <t>0.000000</t>
   </si>
   <si>
     <t>1689.30</t>
   </si>
   <si>
-    <t>304.07</t>
-  </si>
-  <si>
-    <t>27.87</t>
-  </si>
-  <si>
-    <t>128.39</t>
-  </si>
-  <si>
     <t>400.40</t>
   </si>
   <si>
-    <t>72.07</t>
-  </si>
-  <si>
-    <t>6.61</t>
-  </si>
-  <si>
-    <t>30.43</t>
-  </si>
-  <si>
     <t>2315.74</t>
   </si>
   <si>
-    <t>416.83</t>
-  </si>
-  <si>
-    <t>38.21</t>
-  </si>
-  <si>
-    <t>176.00</t>
-  </si>
-  <si>
     <t>916.50</t>
   </si>
   <si>
-    <t>164.97</t>
-  </si>
-  <si>
-    <t>15.12</t>
-  </si>
-  <si>
-    <t>69.65</t>
-  </si>
-  <si>
     <t>R00000008</t>
   </si>
   <si>
@@ -609,18 +550,6 @@
     <t>227820.07</t>
   </si>
   <si>
-    <t>220185.00</t>
-  </si>
-  <si>
-    <t>26419.56</t>
-  </si>
-  <si>
-    <t>3633.05</t>
-  </si>
-  <si>
-    <t>16734.06</t>
-  </si>
-  <si>
     <t>28.88</t>
   </si>
   <si>
@@ -639,18 +568,6 @@
     <t>523.74</t>
   </si>
   <si>
-    <t>62.85</t>
-  </si>
-  <si>
-    <t>8.90</t>
-  </si>
-  <si>
-    <t>41.00</t>
-  </si>
-  <si>
-    <t>15.71</t>
-  </si>
-  <si>
     <t>R00000021</t>
   </si>
   <si>
@@ -660,15 +577,6 @@
     <t>312.54</t>
   </si>
   <si>
-    <t>21.88</t>
-  </si>
-  <si>
-    <t>5.16</t>
-  </si>
-  <si>
-    <t>23.75</t>
-  </si>
-  <si>
     <t>121.55</t>
   </si>
   <si>
@@ -684,18 +592,6 @@
     <t>424.00</t>
   </si>
   <si>
-    <t>50.88</t>
-  </si>
-  <si>
-    <t>7.21</t>
-  </si>
-  <si>
-    <t>33.19</t>
-  </si>
-  <si>
-    <t>12.72</t>
-  </si>
-  <si>
     <t>R00000025</t>
   </si>
   <si>
@@ -705,18 +601,6 @@
     <t>200.00</t>
   </si>
   <si>
-    <t>24.00</t>
-  </si>
-  <si>
-    <t>3.40</t>
-  </si>
-  <si>
-    <t>15.66</t>
-  </si>
-  <si>
-    <t>6.00</t>
-  </si>
-  <si>
     <t>R00000026</t>
   </si>
   <si>
@@ -726,24 +610,12 @@
     <t>3000.00</t>
   </si>
   <si>
-    <t>210.01</t>
-  </si>
-  <si>
-    <t>49.50</t>
-  </si>
-  <si>
-    <t>228.00</t>
-  </si>
-  <si>
     <t>1166.70</t>
   </si>
   <si>
     <t>R00000028</t>
   </si>
   <si>
-    <t>50.90</t>
-  </si>
-  <si>
     <t>45735</t>
   </si>
   <si>
@@ -973,9 +845,6 @@
   </si>
   <si>
     <t>3950.00</t>
-  </si>
-  <si>
-    <t>711.00</t>
   </si>
   <si>
     <t>-120.00</t>
@@ -1139,7 +1008,31 @@
     <t>Sessão "tdrecl504m00l". Fazer o detalhamento da referência Fiscal desejada. Na aba inferior "Linhas" detalhar a linha apresentada. Na aba superior Geral, seção "Dados Fiscais" verificar se "Origem da Mercadoria" é "Estrangeiro com Importação Direta" ou "Estrangeiro com Importação Direta-CAMEX". Se for, na aba "Geral", seção "Dados de Compra"  pegar a informação de "Preço de Custo"</t>
   </si>
   <si>
-    <t>Não consegui mapear pelas telas do LN</t>
+    <t>Se tiver Serviço, será o item de serviço</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sessão "tdpur4100m000"
+informar e detalhar o pedido de compra
+Aba inferior Monitor, detalhar a primeira linha apresentada com o Status Aprovado . Na aba superior Compras, seção Datas, pegar a Data da Ordem </t>
+  </si>
+  <si>
+    <t>É resultado de calculo na view VW_SKU_CMV</t>
+  </si>
+  <si>
+    <t>Sessão "tdpur4100m000". Informar o pedido e pedir o detalhamento do mesmo.
+Na seção "Controle", se o tipo de ordem de compra for 006, retornará T. Caso contrário P</t>
+  </si>
+  <si>
+    <t>Está zerado na view</t>
+  </si>
+  <si>
+    <t>Executa o seguinte cálculo:
+Para os itens com ICMS_ST [ (vl_item_merc + vlr_ipi + vlr_icms_st) - (vlr_pis + vlr_cofins + vlr_icms )]
+Para os itens com ICMS_ST [ (vl_item_merc + vlr_ipi) - (vlr_pis + vlr_cofins + vlr_icms )]</t>
+  </si>
+  <si>
+    <t>vem da NFR_Detalhe
+NR_NFR_REFERENCIA, porém está sem leitura. Vem zeros</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1070,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1220,14 +1113,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFA7E7E"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1277,28 +1164,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left/>
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1320,13 +1200,22 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1338,35 +1227,20 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1376,8 +1250,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFEEC0C0"/>
-      <color rgb="FFFFFFCC"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1670,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="D2:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D45"/>
     </sheetView>
   </sheetViews>
@@ -1699,7 +1573,7 @@
     </row>
     <row r="4" spans="4:6">
       <c r="D4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F4" t="str">
         <f t="shared" si="0"/>
@@ -1708,7 +1582,7 @@
     </row>
     <row r="5" spans="4:6">
       <c r="D5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F5" t="str">
         <f t="shared" si="0"/>
@@ -1717,7 +1591,7 @@
     </row>
     <row r="6" spans="4:6">
       <c r="D6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F6" t="str">
         <f t="shared" si="0"/>
@@ -1726,7 +1600,7 @@
     </row>
     <row r="7" spans="4:6">
       <c r="D7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -1735,7 +1609,7 @@
     </row>
     <row r="8" spans="4:6">
       <c r="D8" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F8" t="str">
         <f t="shared" si="0"/>
@@ -1744,7 +1618,7 @@
     </row>
     <row r="9" spans="4:6">
       <c r="D9" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" si="0"/>
@@ -1753,7 +1627,7 @@
     </row>
     <row r="10" spans="4:6">
       <c r="D10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="0"/>
@@ -1771,7 +1645,7 @@
     </row>
     <row r="12" spans="4:6">
       <c r="D12" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F12" t="str">
         <f t="shared" si="0"/>
@@ -1798,7 +1672,7 @@
     </row>
     <row r="15" spans="4:6">
       <c r="D15" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="0"/>
@@ -1807,7 +1681,7 @@
     </row>
     <row r="16" spans="4:6">
       <c r="D16" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="0"/>
@@ -1816,7 +1690,7 @@
     </row>
     <row r="17" spans="4:6">
       <c r="D17" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="0"/>
@@ -1825,7 +1699,7 @@
     </row>
     <row r="18" spans="4:6">
       <c r="D18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F18" t="str">
         <f t="shared" si="0"/>
@@ -1834,7 +1708,7 @@
     </row>
     <row r="19" spans="4:6">
       <c r="D19" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F19" t="str">
         <f t="shared" si="0"/>
@@ -1843,7 +1717,7 @@
     </row>
     <row r="20" spans="4:6">
       <c r="D20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="0"/>
@@ -1852,7 +1726,7 @@
     </row>
     <row r="21" spans="4:6">
       <c r="D21" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="0"/>
@@ -1861,7 +1735,7 @@
     </row>
     <row r="22" spans="4:6">
       <c r="D22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="0"/>
@@ -1870,7 +1744,7 @@
     </row>
     <row r="23" spans="4:6">
       <c r="D23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="F23" t="str">
         <f t="shared" si="0"/>
@@ -1879,7 +1753,7 @@
     </row>
     <row r="24" spans="4:6">
       <c r="D24" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F24" t="str">
         <f t="shared" si="0"/>
@@ -1897,7 +1771,7 @@
     </row>
     <row r="26" spans="4:6">
       <c r="D26" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="F26" t="str">
         <f t="shared" si="0"/>
@@ -1906,7 +1780,7 @@
     </row>
     <row r="27" spans="4:6">
       <c r="D27" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F27" t="str">
         <f t="shared" si="0"/>
@@ -1915,7 +1789,7 @@
     </row>
     <row r="28" spans="4:6">
       <c r="D28" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F28" t="str">
         <f t="shared" si="0"/>
@@ -1924,7 +1798,7 @@
     </row>
     <row r="29" spans="4:6">
       <c r="D29" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F29" t="str">
         <f t="shared" si="0"/>
@@ -1933,7 +1807,7 @@
     </row>
     <row r="30" spans="4:6">
       <c r="D30" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F30" t="str">
         <f t="shared" si="0"/>
@@ -1942,7 +1816,7 @@
     </row>
     <row r="31" spans="4:6">
       <c r="D31" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F31" t="str">
         <f t="shared" si="0"/>
@@ -1960,7 +1834,7 @@
     </row>
     <row r="33" spans="4:6">
       <c r="D33" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="F33" t="str">
         <f t="shared" si="0"/>
@@ -1969,7 +1843,7 @@
     </row>
     <row r="34" spans="4:6">
       <c r="D34" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F34" t="str">
         <f t="shared" si="0"/>
@@ -1978,7 +1852,7 @@
     </row>
     <row r="35" spans="4:6">
       <c r="D35" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F35" t="str">
         <f t="shared" si="0"/>
@@ -1987,7 +1861,7 @@
     </row>
     <row r="36" spans="4:6">
       <c r="D36" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F36" t="str">
         <f t="shared" si="0"/>
@@ -1996,7 +1870,7 @@
     </row>
     <row r="37" spans="4:6">
       <c r="D37" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F37" t="str">
         <f t="shared" si="0"/>
@@ -2005,7 +1879,7 @@
     </row>
     <row r="38" spans="4:6">
       <c r="D38" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F38" t="str">
         <f t="shared" si="0"/>
@@ -2014,7 +1888,7 @@
     </row>
     <row r="39" spans="4:6">
       <c r="D39" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F39" t="str">
         <f t="shared" si="0"/>
@@ -2023,7 +1897,7 @@
     </row>
     <row r="40" spans="4:6">
       <c r="D40" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="F40" t="str">
         <f t="shared" si="0"/>
@@ -2032,7 +1906,7 @@
     </row>
     <row r="41" spans="4:6">
       <c r="D41" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F41" t="str">
         <f t="shared" si="0"/>
@@ -2041,7 +1915,7 @@
     </row>
     <row r="42" spans="4:6">
       <c r="D42" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="F42" t="str">
         <f t="shared" si="0"/>
@@ -2050,7 +1924,7 @@
     </row>
     <row r="43" spans="4:6">
       <c r="D43" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="0"/>
@@ -2059,7 +1933,7 @@
     </row>
     <row r="44" spans="4:6">
       <c r="D44" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F44" t="str">
         <f t="shared" si="0"/>
@@ -2068,7 +1942,7 @@
     </row>
     <row r="45" spans="4:6">
       <c r="D45" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F45" t="str">
         <f t="shared" si="0"/>
@@ -2082,11 +1956,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X34"/>
+  <dimension ref="A1:X38"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
+      <selection pane="bottomLeft" activeCell="I19" sqref="I19:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -2239,7 +2113,7 @@
         <v>25</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>26</v>
@@ -2247,7 +2121,7 @@
       <c r="R2" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="T2" s="5" t="s">
@@ -2313,7 +2187,7 @@
         <v>25</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q3" s="5" t="s">
         <v>26</v>
@@ -2387,7 +2261,7 @@
         <v>25</v>
       </c>
       <c r="P4" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="5" t="s">
         <v>26</v>
@@ -2461,7 +2335,7 @@
         <v>25</v>
       </c>
       <c r="P5" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q5" s="5" t="s">
         <v>26</v>
@@ -2535,7 +2409,7 @@
         <v>25</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q6" s="4" t="s">
         <v>26</v>
@@ -2609,7 +2483,7 @@
         <v>25</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="4" t="s">
         <v>26</v>
@@ -2683,7 +2557,7 @@
         <v>97</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>25</v>
@@ -2757,7 +2631,7 @@
         <v>97</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>26</v>
@@ -2831,7 +2705,7 @@
         <v>97</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q10" s="4" t="s">
         <v>26</v>
@@ -2905,7 +2779,7 @@
         <v>25</v>
       </c>
       <c r="P11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>85</v>
@@ -2979,7 +2853,7 @@
         <v>25</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>85</v>
@@ -3014,31 +2888,31 @@
         <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>116</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>119</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J13" s="4" t="s">
         <v>35</v>
       </c>
       <c r="K13" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L13" s="4" t="s">
         <v>34</v>
@@ -3053,19 +2927,19 @@
         <v>25</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R13" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U13" s="4" t="s">
         <v>37</v>
@@ -3074,10 +2948,10 @@
         <v>37</v>
       </c>
       <c r="W13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="X13" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="X13" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:24" s="7" customFormat="1">
@@ -3088,31 +2962,31 @@
         <v>32</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>45</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J14" s="4" t="s">
         <v>35</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>34</v>
@@ -3127,19 +3001,19 @@
         <v>25</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>26</v>
       </c>
       <c r="R14" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="S14" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="U14" s="4" t="s">
         <v>37</v>
@@ -3148,10 +3022,10 @@
         <v>37</v>
       </c>
       <c r="W14" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="X14" s="4" t="s">
         <v>121</v>
-      </c>
-      <c r="X14" s="4" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -3233,260 +3107,269 @@
       <c r="X17" s="3"/>
     </row>
     <row r="19" spans="1:24" ht="11.25" customHeight="1">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="I19" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="J19" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K19" s="13" t="s">
+      <c r="K19" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M19" s="12" t="s">
+      <c r="M19" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="N19" s="14" t="s">
+      <c r="N19" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="O19" s="14" t="s">
+      <c r="O19" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="P19" s="12" t="s">
+      <c r="P19" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q19" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="Q19" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="R19" s="15" t="s">
+      <c r="R19" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="S19" s="18" t="s">
-        <v>115</v>
+      <c r="S19" s="16" t="s">
+        <v>319</v>
       </c>
       <c r="T19" s="20" t="s">
-        <v>323</v>
-      </c>
-      <c r="U19" s="14" t="s">
+        <v>280</v>
+      </c>
+      <c r="U19" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="V19" s="12" t="s">
+      <c r="V19" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="W19" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="X19" s="19" t="s">
-        <v>126</v>
+      <c r="W19" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="X19" s="16" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:24">
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="12"/>
-      <c r="N20" s="14"/>
-      <c r="O20" s="14"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="16"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="18"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="15"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="16"/>
       <c r="T20" s="20"/>
-      <c r="U20" s="14"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="21"/>
-      <c r="X20" s="19"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="15"/>
+      <c r="W20" s="15"/>
+      <c r="X20" s="16"/>
     </row>
     <row r="21" spans="1:24">
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="12"/>
-      <c r="N21" s="14"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="16"/>
-      <c r="R21" s="15"/>
-      <c r="S21" s="18"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="15"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="16"/>
       <c r="T21" s="20"/>
-      <c r="U21" s="14"/>
-      <c r="V21" s="12"/>
-      <c r="W21" s="21"/>
-      <c r="X21" s="19"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="16"/>
     </row>
     <row r="22" spans="1:24">
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="12"/>
-      <c r="N22" s="14"/>
-      <c r="O22" s="14"/>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="16"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="18"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="15"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="16"/>
       <c r="T22" s="20"/>
-      <c r="U22" s="14"/>
-      <c r="V22" s="12"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="19"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="15"/>
+      <c r="W22" s="15"/>
+      <c r="X22" s="16"/>
     </row>
     <row r="23" spans="1:24">
-      <c r="B23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="13"/>
-      <c r="L23" s="13"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="Q23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="16"/>
+      <c r="K23" s="16"/>
+      <c r="L23" s="16"/>
+      <c r="M23" s="15"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="Q23" s="19"/>
+      <c r="S23" s="16"/>
       <c r="T23" s="20"/>
-      <c r="U23" s="14"/>
+      <c r="U23" s="17"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="21"/>
-      <c r="X23" s="19"/>
+      <c r="X23" s="16"/>
     </row>
     <row r="24" spans="1:24">
-      <c r="B24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="13"/>
-      <c r="L24" s="13"/>
-      <c r="M24" s="12"/>
-      <c r="N24" s="14"/>
-      <c r="O24" s="14"/>
-      <c r="Q24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="Q24" s="19"/>
+      <c r="S24" s="16"/>
       <c r="T24" s="20"/>
-      <c r="U24" s="14"/>
-      <c r="W24" s="21"/>
-      <c r="X24" s="19"/>
+      <c r="U24" s="17"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="16"/>
     </row>
     <row r="25" spans="1:24">
-      <c r="B25" s="13"/>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="Q25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="Q25" s="19"/>
+      <c r="S25" s="16"/>
       <c r="T25" s="6"/>
-      <c r="U25" s="14"/>
+      <c r="U25" s="17"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="21"/>
-      <c r="X25" s="19"/>
+      <c r="W25" s="6"/>
+      <c r="X25" s="16"/>
     </row>
     <row r="26" spans="1:24">
-      <c r="B26" s="13"/>
-      <c r="N26" s="14"/>
-      <c r="O26" s="14"/>
-      <c r="Q26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="Q26" s="19"/>
+      <c r="S26" s="16"/>
       <c r="T26" s="6"/>
-      <c r="U26" s="14"/>
+      <c r="U26" s="17"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="21"/>
+      <c r="W26" s="6"/>
     </row>
     <row r="27" spans="1:24">
-      <c r="B27" s="13"/>
-      <c r="N27" s="14"/>
-      <c r="O27" s="14"/>
-      <c r="Q27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="Q27" s="19"/>
+      <c r="S27" s="16"/>
       <c r="T27" s="6"/>
-      <c r="U27" s="14"/>
+      <c r="U27" s="17"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="21"/>
+      <c r="W27" s="6"/>
     </row>
     <row r="28" spans="1:24">
-      <c r="B28" s="13"/>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="Q28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="Q28" s="19"/>
+      <c r="S28" s="16"/>
       <c r="T28" s="6"/>
-      <c r="U28" s="14"/>
+      <c r="U28" s="17"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="21"/>
+      <c r="W28" s="6"/>
     </row>
     <row r="29" spans="1:24">
-      <c r="B29" s="13"/>
-      <c r="N29" s="14"/>
-      <c r="O29" s="14"/>
-      <c r="Q29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="Q29" s="19"/>
+      <c r="S29" s="16"/>
       <c r="T29" s="6"/>
-      <c r="U29" s="14"/>
+      <c r="U29" s="17"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="21"/>
     </row>
     <row r="30" spans="1:24">
-      <c r="Q30" s="16"/>
-      <c r="W30" s="21"/>
+      <c r="Q30" s="19"/>
+      <c r="S30" s="16"/>
     </row>
     <row r="31" spans="1:24">
-      <c r="Q31" s="16"/>
-      <c r="W31" s="21"/>
-    </row>
-    <row r="32" spans="1:24">
-      <c r="W32" s="21"/>
-    </row>
-    <row r="33" spans="17:23">
-      <c r="Q33" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="W33" s="21"/>
-    </row>
-    <row r="34" spans="17:23">
-      <c r="Q34" s="17"/>
+      <c r="Q31" s="19"/>
+      <c r="S31" s="16"/>
+    </row>
+    <row r="36" spans="23:23">
+      <c r="W36" s="6"/>
+    </row>
+    <row r="37" spans="23:23">
+      <c r="W37" s="6"/>
+    </row>
+    <row r="38" spans="23:23">
+      <c r="W38" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="S19:S22"/>
     <mergeCell ref="X19:X25"/>
     <mergeCell ref="T19:T24"/>
     <mergeCell ref="U19:U29"/>
     <mergeCell ref="V19:V22"/>
-    <mergeCell ref="W19:W33"/>
+    <mergeCell ref="S19:S31"/>
+    <mergeCell ref="W19:W22"/>
     <mergeCell ref="N19:N29"/>
     <mergeCell ref="O19:O29"/>
     <mergeCell ref="P19:P22"/>
@@ -3503,6 +3386,7 @@
     <mergeCell ref="J19:J24"/>
     <mergeCell ref="K19:K24"/>
     <mergeCell ref="L19:L24"/>
+    <mergeCell ref="I19:I24"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3513,9 +3397,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ25" sqref="AQ25:AQ33"/>
+      <selection pane="bottomLeft" activeCell="AB34" sqref="AB34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -3555,144 +3439,145 @@
     <col min="36" max="36" width="34.28515625" style="3" customWidth="1"/>
     <col min="37" max="37" width="31.7109375" style="3" customWidth="1"/>
     <col min="38" max="39" width="33.85546875" style="3" customWidth="1"/>
-    <col min="40" max="42" width="15.7109375" style="3" customWidth="1"/>
+    <col min="40" max="41" width="15.7109375" style="3" customWidth="1"/>
+    <col min="42" max="42" width="36.7109375" style="3" customWidth="1"/>
     <col min="43" max="43" width="42.140625" style="3" customWidth="1"/>
     <col min="44" max="44" width="26.140625" style="3" customWidth="1"/>
     <col min="45" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:44">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="H1" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="I1" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="L1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="O1" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="P1" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="Q1" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="N1" s="10" t="s">
+      <c r="R1" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="S1" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="T1" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="U1" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="R1" s="10" t="s">
+      <c r="V1" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="W1" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="10" t="s">
+      <c r="X1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y1" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="10" t="s">
+      <c r="Z1" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="10" t="s">
+      <c r="AA1" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="10" t="s">
+      <c r="AB1" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="X1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y1" s="10" t="s">
+      <c r="AC1" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="Z1" s="10" t="s">
+      <c r="AD1" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="AA1" s="10" t="s">
+      <c r="AE1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF1" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="AB1" s="10" t="s">
+      <c r="AG1" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="AC1" s="10" t="s">
+      <c r="AH1" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="AD1" s="10" t="s">
+      <c r="AI1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="AE1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF1" s="10" t="s">
+      <c r="AJ1" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="AG1" s="10" t="s">
+      <c r="AK1" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AL1" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AM1" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="AJ1" s="10" t="s">
+      <c r="AN1" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="AK1" s="10" t="s">
+      <c r="AO1" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="AL1" s="10" t="s">
+      <c r="AP1" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="AM1" s="10" t="s">
+      <c r="AQ1" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="AN1" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO1" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="AP1" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
-        <v>162</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>283</v>
+      <c r="AR1" s="9" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="2" spans="1:44">
@@ -3703,25 +3588,25 @@
         <v>39</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>36</v>
@@ -3730,37 +3615,37 @@
         <v>37</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q2" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>24</v>
+        <v>162</v>
+      </c>
+      <c r="P2" s="12">
+        <v>1176</v>
+      </c>
+      <c r="Q2" s="12">
+        <v>211.68</v>
+      </c>
+      <c r="R2" s="12">
+        <v>0</v>
+      </c>
+      <c r="S2" s="13">
+        <v>0</v>
+      </c>
+      <c r="T2" s="12">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="U2" s="12">
+        <v>89.38</v>
+      </c>
+      <c r="V2" s="12">
+        <v>0</v>
       </c>
       <c r="W2" s="5" t="s">
         <v>24</v>
@@ -3793,7 +3678,7 @@
         <v>24</v>
       </c>
       <c r="AG2" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AH2" s="5" t="s">
         <v>24</v>
@@ -3814,19 +3699,19 @@
         <v>24</v>
       </c>
       <c r="AN2" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO2" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP2" s="3" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="AQ2" s="5" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="AR2" s="5" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:44">
@@ -3837,25 +3722,25 @@
         <v>39</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>36</v>
@@ -3864,37 +3749,37 @@
         <v>37</v>
       </c>
       <c r="L3" s="5" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="N3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="P3" s="12">
+        <v>1689.3</v>
+      </c>
+      <c r="Q3" s="13">
+        <v>304.07</v>
+      </c>
+      <c r="R3" s="13">
+        <v>0</v>
+      </c>
+      <c r="S3" s="13">
+        <v>0</v>
+      </c>
+      <c r="T3" s="13">
+        <v>27.87</v>
+      </c>
+      <c r="U3" s="13">
+        <v>128.38999999999999</v>
+      </c>
+      <c r="V3" s="13">
+        <v>0</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>24</v>
@@ -3927,7 +3812,7 @@
         <v>24</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AH3" s="5" t="s">
         <v>24</v>
@@ -3948,19 +3833,19 @@
         <v>24</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP3" s="3" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="AQ3" s="5" t="s">
         <v>55</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:44">
@@ -3971,25 +3856,25 @@
         <v>39</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>36</v>
@@ -3998,37 +3883,37 @@
         <v>37</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="O4" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="P4" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="U4" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="V4" s="3" t="s">
-        <v>24</v>
+        <v>165</v>
+      </c>
+      <c r="P4" s="12">
+        <v>400.4</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="R4" s="13">
+        <v>0</v>
+      </c>
+      <c r="S4" s="13">
+        <v>0</v>
+      </c>
+      <c r="T4" s="13">
+        <v>6.61</v>
+      </c>
+      <c r="U4" s="13">
+        <v>30.43</v>
+      </c>
+      <c r="V4" s="13">
+        <v>0</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>24</v>
@@ -4061,7 +3946,7 @@
         <v>24</v>
       </c>
       <c r="AG4" s="5" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AH4" s="5" t="s">
         <v>24</v>
@@ -4082,19 +3967,19 @@
         <v>24</v>
       </c>
       <c r="AN4" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO4" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP4" s="3" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="AQ4" s="5" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="AR4" s="5" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:44">
@@ -4105,25 +3990,25 @@
         <v>39</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>36</v>
@@ -4132,37 +4017,37 @@
         <v>37</v>
       </c>
       <c r="L5" s="5" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="O5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="R5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V5" s="3" t="s">
-        <v>24</v>
+        <v>166</v>
+      </c>
+      <c r="P5" s="12">
+        <v>2315.7399999999998</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>416.83</v>
+      </c>
+      <c r="R5" s="13">
+        <v>0</v>
+      </c>
+      <c r="S5" s="13">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
+        <v>38.21</v>
+      </c>
+      <c r="U5" s="13">
+        <v>176</v>
+      </c>
+      <c r="V5" s="13">
+        <v>0</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>24</v>
@@ -4195,7 +4080,7 @@
         <v>24</v>
       </c>
       <c r="AG5" s="5" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AH5" s="5" t="s">
         <v>24</v>
@@ -4216,19 +4101,19 @@
         <v>24</v>
       </c>
       <c r="AN5" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO5" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP5" s="3" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="AQ5" s="5" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="AR5" s="5" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:44">
@@ -4239,25 +4124,25 @@
         <v>39</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>32</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>238</v>
+        <v>196</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>36</v>
@@ -4266,37 +4151,37 @@
         <v>37</v>
       </c>
       <c r="L6" s="5" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="O6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="P6" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T6" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="V6" s="3" t="s">
-        <v>24</v>
+        <v>167</v>
+      </c>
+      <c r="P6" s="12">
+        <v>916.5</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>164.97</v>
+      </c>
+      <c r="R6" s="13">
+        <v>0</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0</v>
+      </c>
+      <c r="T6" s="13">
+        <v>15.12</v>
+      </c>
+      <c r="U6" s="13">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="V6" s="13">
+        <v>0</v>
       </c>
       <c r="W6" s="3" t="s">
         <v>24</v>
@@ -4323,13 +4208,13 @@
         <v>99</v>
       </c>
       <c r="AE6" s="5" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="AF6" s="5" t="s">
         <v>24</v>
       </c>
       <c r="AG6" s="5" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="AH6" s="5" t="s">
         <v>24</v>
@@ -4350,19 +4235,19 @@
         <v>24</v>
       </c>
       <c r="AN6" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO6" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP6" s="3" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="AQ6" s="5" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="AR6" s="5" t="s">
-        <v>284</v>
+        <v>242</v>
       </c>
     </row>
     <row r="7" spans="1:44">
@@ -4373,25 +4258,25 @@
         <v>39</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="J7" s="3" t="s">
         <v>36</v>
@@ -4400,37 +4285,37 @@
         <v>37</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>239</v>
+        <v>197</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="R7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T7" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="U7" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="V7" s="3" t="s">
-        <v>24</v>
+        <v>162</v>
+      </c>
+      <c r="P7" s="13">
+        <v>1176</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>211.68</v>
+      </c>
+      <c r="R7" s="13">
+        <v>0</v>
+      </c>
+      <c r="S7" s="13">
+        <v>0</v>
+      </c>
+      <c r="T7" s="13">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="U7" s="13">
+        <v>89.38</v>
+      </c>
+      <c r="V7" s="13">
+        <v>0</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>24</v>
@@ -4463,7 +4348,7 @@
         <v>24</v>
       </c>
       <c r="AG7" s="3" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AH7" s="3" t="s">
         <v>24</v>
@@ -4484,19 +4369,19 @@
         <v>24</v>
       </c>
       <c r="AN7" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO7" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP7" s="3" t="s">
-        <v>241</v>
+        <v>199</v>
       </c>
       <c r="AQ7" s="3" t="s">
-        <v>240</v>
+        <v>198</v>
       </c>
       <c r="AR7" s="3" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8" spans="1:44">
@@ -4507,25 +4392,25 @@
         <v>39</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>36</v>
@@ -4534,37 +4419,37 @@
         <v>37</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>242</v>
+        <v>200</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="R8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T8" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="U8" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="V8" s="3" t="s">
-        <v>24</v>
+        <v>164</v>
+      </c>
+      <c r="P8" s="13">
+        <v>1689.3</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>304.07</v>
+      </c>
+      <c r="R8" s="13">
+        <v>0</v>
+      </c>
+      <c r="S8" s="13">
+        <v>0</v>
+      </c>
+      <c r="T8" s="13">
+        <v>27.87</v>
+      </c>
+      <c r="U8" s="13">
+        <v>128.38999999999999</v>
+      </c>
+      <c r="V8" s="13">
+        <v>0</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>24</v>
@@ -4597,7 +4482,7 @@
         <v>24</v>
       </c>
       <c r="AG8" s="3" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="AH8" s="3" t="s">
         <v>24</v>
@@ -4618,19 +4503,19 @@
         <v>24</v>
       </c>
       <c r="AN8" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO8" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP8" s="3" t="s">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="AQ8" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AR8" s="3" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:44">
@@ -4641,25 +4526,25 @@
         <v>39</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>36</v>
@@ -4668,37 +4553,37 @@
         <v>37</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>244</v>
+        <v>202</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q9" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="R9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T9" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="U9" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="V9" s="3" t="s">
-        <v>24</v>
+        <v>165</v>
+      </c>
+      <c r="P9" s="13">
+        <v>400.4</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>72.069999999999993</v>
+      </c>
+      <c r="R9" s="13">
+        <v>0</v>
+      </c>
+      <c r="S9" s="13">
+        <v>0</v>
+      </c>
+      <c r="T9" s="13">
+        <v>6.61</v>
+      </c>
+      <c r="U9" s="13">
+        <v>30.43</v>
+      </c>
+      <c r="V9" s="13">
+        <v>0</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>24</v>
@@ -4731,7 +4616,7 @@
         <v>24</v>
       </c>
       <c r="AG9" s="3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AH9" s="3" t="s">
         <v>24</v>
@@ -4752,19 +4637,19 @@
         <v>24</v>
       </c>
       <c r="AN9" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO9" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP9" s="3" t="s">
-        <v>246</v>
+        <v>204</v>
       </c>
       <c r="AQ9" s="3" t="s">
-        <v>245</v>
+        <v>203</v>
       </c>
       <c r="AR9" s="3" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:44">
@@ -4775,25 +4660,25 @@
         <v>39</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>36</v>
@@ -4802,37 +4687,37 @@
         <v>37</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q10" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="R10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T10" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="U10" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="V10" s="3" t="s">
-        <v>24</v>
+        <v>166</v>
+      </c>
+      <c r="P10" s="13">
+        <v>2315.7399999999998</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>416.83</v>
+      </c>
+      <c r="R10" s="13">
+        <v>0</v>
+      </c>
+      <c r="S10" s="13">
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>38.21</v>
+      </c>
+      <c r="U10" s="13">
+        <v>176</v>
+      </c>
+      <c r="V10" s="13">
+        <v>0</v>
       </c>
       <c r="W10" s="3" t="s">
         <v>24</v>
@@ -4865,7 +4750,7 @@
         <v>24</v>
       </c>
       <c r="AG10" s="3" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="AH10" s="3" t="s">
         <v>24</v>
@@ -4886,19 +4771,19 @@
         <v>24</v>
       </c>
       <c r="AN10" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO10" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP10" s="3" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="AQ10" s="3" t="s">
-        <v>248</v>
+        <v>206</v>
       </c>
       <c r="AR10" s="3" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:44">
@@ -4909,25 +4794,25 @@
         <v>39</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>235</v>
+        <v>193</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>254</v>
+        <v>212</v>
       </c>
       <c r="J11" s="3" t="s">
         <v>36</v>
@@ -4936,37 +4821,37 @@
         <v>37</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>250</v>
+        <v>208</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="P11" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T11" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="V11" s="3" t="s">
-        <v>24</v>
+        <v>167</v>
+      </c>
+      <c r="P11" s="13">
+        <v>916.5</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>164.97</v>
+      </c>
+      <c r="R11" s="13">
+        <v>0</v>
+      </c>
+      <c r="S11" s="13">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>15.12</v>
+      </c>
+      <c r="U11" s="13">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="V11" s="13">
+        <v>0</v>
       </c>
       <c r="W11" s="3" t="s">
         <v>24</v>
@@ -4993,13 +4878,13 @@
         <v>99</v>
       </c>
       <c r="AE11" s="3" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="AF11" s="3" t="s">
         <v>24</v>
       </c>
       <c r="AG11" s="3" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="AH11" s="3" t="s">
         <v>24</v>
@@ -5020,19 +4905,19 @@
         <v>24</v>
       </c>
       <c r="AN11" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO11" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP11" s="3" t="s">
-        <v>253</v>
+        <v>211</v>
       </c>
       <c r="AQ11" s="3" t="s">
-        <v>251</v>
+        <v>209</v>
       </c>
       <c r="AR11" s="3" t="s">
-        <v>285</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:44">
@@ -5043,16 +4928,16 @@
         <v>39</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>256</v>
+        <v>214</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>46</v>
@@ -5061,7 +4946,7 @@
         <v>30</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>36</v>
@@ -5070,37 +4955,37 @@
         <v>37</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="N12" s="5" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="O12" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="P12" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T12" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="U12" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="V12" s="5" t="s">
-        <v>24</v>
+        <v>170</v>
+      </c>
+      <c r="P12" s="12">
+        <v>220185</v>
+      </c>
+      <c r="Q12" s="12">
+        <v>26419.56</v>
+      </c>
+      <c r="R12" s="14" t="s">
+        <v>279</v>
+      </c>
+      <c r="S12" s="13">
+        <v>0</v>
+      </c>
+      <c r="T12" s="12">
+        <v>3633.05</v>
+      </c>
+      <c r="U12" s="12">
+        <v>16734.060000000001</v>
+      </c>
+      <c r="V12" s="12">
+        <v>0</v>
       </c>
       <c r="W12" s="3" t="s">
         <v>24</v>
@@ -5112,7 +4997,7 @@
         <v>24</v>
       </c>
       <c r="Z12" s="5" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="AA12" s="3" t="s">
         <v>99</v>
@@ -5133,7 +5018,7 @@
         <v>24</v>
       </c>
       <c r="AG12" s="3" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="AH12" s="3" t="s">
         <v>24</v>
@@ -5154,19 +5039,19 @@
         <v>24</v>
       </c>
       <c r="AN12" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO12" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP12" s="3" t="s">
-        <v>260</v>
+        <v>218</v>
       </c>
       <c r="AQ12" s="3" t="s">
-        <v>259</v>
+        <v>217</v>
       </c>
       <c r="AR12" s="3" t="s">
-        <v>286</v>
+        <v>244</v>
       </c>
     </row>
     <row r="13" spans="1:44">
@@ -5177,64 +5062,64 @@
         <v>32</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>293</v>
+        <v>251</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>297</v>
+        <v>255</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="P13" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="R13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U13" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V13" s="3" t="s">
-        <v>24</v>
+        <v>258</v>
+      </c>
+      <c r="P13" s="13">
+        <v>60</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="13">
+        <v>0</v>
+      </c>
+      <c r="S13" s="13">
+        <v>0</v>
+      </c>
+      <c r="T13" s="13">
+        <v>0</v>
+      </c>
+      <c r="U13" s="13">
+        <v>0</v>
+      </c>
+      <c r="V13" s="13">
+        <v>0</v>
       </c>
       <c r="W13" s="3" t="s">
         <v>24</v>
@@ -5243,7 +5128,7 @@
         <v>24</v>
       </c>
       <c r="Y13" s="5" t="s">
-        <v>301</v>
+        <v>259</v>
       </c>
       <c r="Z13" s="3" t="s">
         <v>24</v>
@@ -5288,19 +5173,19 @@
         <v>24</v>
       </c>
       <c r="AN13" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO13" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP13" s="3" t="s">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="AQ13" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AR13" s="3" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
     </row>
     <row r="14" spans="1:44">
@@ -5311,25 +5196,25 @@
         <v>55</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>261</v>
+        <v>219</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>33</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>262</v>
+        <v>220</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>43</v>
@@ -5338,37 +5223,37 @@
         <v>37</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>264</v>
+        <v>222</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>203</v>
+        <v>175</v>
+      </c>
+      <c r="P14" s="13">
+        <v>523.74</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>62.85</v>
+      </c>
+      <c r="R14" s="13">
+        <v>0</v>
+      </c>
+      <c r="S14" s="13">
+        <v>0</v>
+      </c>
+      <c r="T14" s="13">
+        <v>8.9</v>
+      </c>
+      <c r="U14" s="13">
+        <v>41</v>
+      </c>
+      <c r="V14" s="13">
+        <v>15.71</v>
       </c>
       <c r="W14" s="3" t="s">
         <v>24</v>
@@ -5398,10 +5283,10 @@
         <v>32</v>
       </c>
       <c r="AF14" s="3" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="AG14" s="3" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="AH14" s="3" t="s">
         <v>24</v>
@@ -5422,19 +5307,19 @@
         <v>24</v>
       </c>
       <c r="AN14" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO14" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP14" s="3" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="AQ14" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AR14" s="3" t="s">
-        <v>287</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:44">
@@ -5445,25 +5330,25 @@
         <v>39</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>266</v>
+        <v>224</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>267</v>
+        <v>225</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="J15" s="3" t="s">
         <v>36</v>
@@ -5472,37 +5357,37 @@
         <v>37</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="P15" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q15" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="R15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="U15" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="V15" s="3" t="s">
-        <v>24</v>
+        <v>179</v>
+      </c>
+      <c r="P15" s="13">
+        <v>312.54000000000002</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>21.88</v>
+      </c>
+      <c r="R15" s="13">
+        <v>0</v>
+      </c>
+      <c r="S15" s="13">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>5.16</v>
+      </c>
+      <c r="U15" s="13">
+        <v>23.75</v>
+      </c>
+      <c r="V15" s="13">
+        <v>0</v>
       </c>
       <c r="W15" s="3" t="s">
         <v>24</v>
@@ -5535,7 +5420,7 @@
         <v>24</v>
       </c>
       <c r="AG15" s="3" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="AH15" s="3" t="s">
         <v>24</v>
@@ -5556,19 +5441,19 @@
         <v>24</v>
       </c>
       <c r="AN15" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO15" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP15" s="3" t="s">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="AQ15" s="3" t="s">
         <v>55</v>
       </c>
       <c r="AR15" s="3" t="s">
-        <v>288</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:44">
@@ -5579,25 +5464,25 @@
         <v>55</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>263</v>
+        <v>221</v>
       </c>
       <c r="J16" s="3" t="s">
         <v>36</v>
@@ -5606,37 +5491,37 @@
         <v>37</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P16" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q16" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="R16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T16" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="U16" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="V16" s="3" t="s">
-        <v>218</v>
+        <v>183</v>
+      </c>
+      <c r="P16" s="13">
+        <v>424</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>50.88</v>
+      </c>
+      <c r="R16" s="13">
+        <v>0</v>
+      </c>
+      <c r="S16" s="13">
+        <v>0</v>
+      </c>
+      <c r="T16" s="13">
+        <v>7.21</v>
+      </c>
+      <c r="U16" s="13">
+        <v>33.19</v>
+      </c>
+      <c r="V16" s="13">
+        <v>12.72</v>
       </c>
       <c r="W16" s="3" t="s">
         <v>24</v>
@@ -5666,10 +5551,10 @@
         <v>32</v>
       </c>
       <c r="AF16" s="3" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="AG16" s="3" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="AH16" s="3" t="s">
         <v>24</v>
@@ -5690,19 +5575,19 @@
         <v>24</v>
       </c>
       <c r="AN16" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO16" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP16" s="3" t="s">
-        <v>273</v>
+        <v>231</v>
       </c>
       <c r="AQ16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AR16" s="3" t="s">
-        <v>289</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:44">
@@ -5713,25 +5598,25 @@
         <v>55</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>270</v>
+        <v>228</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>36</v>
@@ -5740,37 +5625,37 @@
         <v>37</v>
       </c>
       <c r="L17" s="3" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="M17" s="3" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="P17" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q17" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="R17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>225</v>
+        <v>186</v>
+      </c>
+      <c r="P17" s="13">
+        <v>200</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>24</v>
+      </c>
+      <c r="R17" s="13">
+        <v>0</v>
+      </c>
+      <c r="S17" s="13">
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <v>3.4</v>
+      </c>
+      <c r="U17" s="13">
+        <v>15.66</v>
+      </c>
+      <c r="V17" s="13">
+        <v>6</v>
       </c>
       <c r="W17" s="3" t="s">
         <v>24</v>
@@ -5800,10 +5685,10 @@
         <v>32</v>
       </c>
       <c r="AF17" s="3" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="AG17" s="3" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="AH17" s="3" t="s">
         <v>24</v>
@@ -5824,19 +5709,19 @@
         <v>24</v>
       </c>
       <c r="AN17" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO17" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP17" s="3" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="AQ17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AR17" s="3" t="s">
-        <v>290</v>
+        <v>248</v>
       </c>
     </row>
     <row r="18" spans="1:44">
@@ -5847,25 +5732,25 @@
         <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>226</v>
+        <v>188</v>
       </c>
       <c r="F18" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>236</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>277</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>278</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>36</v>
@@ -5874,37 +5759,37 @@
         <v>37</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="P18" s="13">
+        <v>3000</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>210.01</v>
+      </c>
+      <c r="R18" s="13">
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
+        <v>0</v>
+      </c>
+      <c r="T18" s="13">
+        <v>49.5</v>
+      </c>
+      <c r="U18" s="13">
         <v>228</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q18" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="R18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>24</v>
+      <c r="V18" s="13">
+        <v>0</v>
       </c>
       <c r="W18" s="3" t="s">
         <v>24</v>
@@ -5937,7 +5822,7 @@
         <v>24</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>232</v>
+        <v>191</v>
       </c>
       <c r="AH18" s="3" t="s">
         <v>24</v>
@@ -5958,19 +5843,19 @@
         <v>24</v>
       </c>
       <c r="AN18" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO18" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP18" s="3" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="AQ18" s="3" t="s">
         <v>32</v>
       </c>
       <c r="AR18" s="3" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:44">
@@ -5981,25 +5866,25 @@
         <v>55</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>281</v>
+        <v>239</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>32</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>233</v>
+        <v>192</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>271</v>
+        <v>229</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="I19" s="3" t="s">
-        <v>255</v>
+        <v>213</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>36</v>
@@ -6008,37 +5893,37 @@
         <v>37</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="M19" s="3" t="s">
-        <v>272</v>
+        <v>230</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q19" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>218</v>
+        <v>183</v>
+      </c>
+      <c r="P19" s="13">
+        <v>424</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>50.9</v>
+      </c>
+      <c r="R19" s="13">
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <v>0</v>
+      </c>
+      <c r="T19" s="13">
+        <v>7.21</v>
+      </c>
+      <c r="U19" s="13">
+        <v>33.19</v>
+      </c>
+      <c r="V19" s="13">
+        <v>12.72</v>
       </c>
       <c r="W19" s="3" t="s">
         <v>24</v>
@@ -6068,10 +5953,10 @@
         <v>32</v>
       </c>
       <c r="AF19" s="3" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="AG19" s="3" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="AH19" s="3" t="s">
         <v>24</v>
@@ -6092,19 +5977,19 @@
         <v>24</v>
       </c>
       <c r="AN19" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO19" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP19" s="3" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="AQ19" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AR19" s="3" t="s">
-        <v>292</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="1:44">
@@ -6115,64 +6000,64 @@
         <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>45</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>308</v>
+        <v>266</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="K20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q20" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="R20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>24</v>
+        <v>269</v>
+      </c>
+      <c r="P20" s="13">
+        <v>3950</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>711</v>
+      </c>
+      <c r="R20" s="13">
+        <v>0</v>
+      </c>
+      <c r="S20" s="13">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="13">
+        <v>0</v>
+      </c>
+      <c r="V20" s="13">
+        <v>0</v>
       </c>
       <c r="W20" s="3" t="s">
         <v>24</v>
@@ -6181,7 +6066,7 @@
         <v>24</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="Z20" s="3" t="s">
         <v>24</v>
@@ -6202,10 +6087,10 @@
         <v>32</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="AH20" s="3" t="s">
         <v>24</v>
@@ -6226,19 +6111,19 @@
         <v>24</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP20" s="3" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="AQ20" s="3" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="AR20" s="3" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:44">
@@ -6249,64 +6134,64 @@
         <v>39</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>252</v>
+        <v>210</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="K21" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>24</v>
+        <v>269</v>
+      </c>
+      <c r="P21" s="13">
+        <v>3950</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>711</v>
+      </c>
+      <c r="R21" s="13">
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
+        <v>0</v>
+      </c>
+      <c r="T21" s="13">
+        <v>0</v>
+      </c>
+      <c r="U21" s="13">
+        <v>0</v>
+      </c>
+      <c r="V21" s="13">
+        <v>0</v>
       </c>
       <c r="W21" s="3" t="s">
         <v>24</v>
@@ -6315,7 +6200,7 @@
         <v>24</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="Z21" s="3" t="s">
         <v>24</v>
@@ -6339,7 +6224,7 @@
         <v>24</v>
       </c>
       <c r="AG21" s="3" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="AH21" s="3" t="s">
         <v>24</v>
@@ -6360,19 +6245,19 @@
         <v>24</v>
       </c>
       <c r="AN21" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO21" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP21" s="3" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="AQ21" s="3" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="AR21" s="3" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:44">
@@ -6383,64 +6268,64 @@
         <v>39</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>38</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="I22" s="3" t="s">
-        <v>320</v>
+        <v>277</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>37</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>309</v>
+        <v>267</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="P22" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q22" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="U22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>24</v>
+        <v>269</v>
+      </c>
+      <c r="P22" s="13">
+        <v>3950</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>711</v>
+      </c>
+      <c r="R22" s="13">
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
+        <v>0</v>
+      </c>
+      <c r="T22" s="13">
+        <v>0</v>
+      </c>
+      <c r="U22" s="13">
+        <v>0</v>
+      </c>
+      <c r="V22" s="13">
+        <v>0</v>
       </c>
       <c r="W22" s="3" t="s">
         <v>24</v>
@@ -6449,7 +6334,7 @@
         <v>24</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>24</v>
@@ -6473,7 +6358,7 @@
         <v>24</v>
       </c>
       <c r="AG22" s="3" t="s">
-        <v>311</v>
+        <v>269</v>
       </c>
       <c r="AH22" s="3" t="s">
         <v>24</v>
@@ -6494,492 +6379,503 @@
         <v>24</v>
       </c>
       <c r="AN22" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AO22" s="3" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="AP22" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="AQ22" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="AR22" s="3" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:44" ht="11.25" customHeight="1">
+      <c r="B25" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="G25" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="M25" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="N25" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="Q25" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="R25" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="S25" s="19" t="s">
+        <v>295</v>
+      </c>
+      <c r="T25" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="U25" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="V25" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="W25" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="X25" s="19" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y25" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="Z25" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="AA25" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB25" s="22" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC25" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="AD25" s="22" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE25" s="16" t="s">
+        <v>303</v>
+      </c>
+      <c r="AF25" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="AG25" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="AH25" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="AI25" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="AJ25" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="AK25" s="19" t="s">
         <v>314</v>
       </c>
-      <c r="AQ22" s="3" t="s">
+      <c r="AL25" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM25" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="AN25" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="AO25" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP25" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="AQ25" s="19" t="s">
+        <v>312</v>
+      </c>
+      <c r="AR25" s="19" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:44">
+      <c r="B26" s="19"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="15"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="15"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="15"/>
+      <c r="N26" s="16"/>
+      <c r="O26" s="16"/>
+      <c r="P26" s="16"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="22"/>
+      <c r="AB26" s="22"/>
+      <c r="AC26" s="22"/>
+      <c r="AD26" s="22"/>
+      <c r="AE26" s="16"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+      <c r="AQ26" s="19"/>
+      <c r="AR26" s="19"/>
+    </row>
+    <row r="27" spans="1:44">
+      <c r="B27" s="19"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="15"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="15"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="15"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="16"/>
+      <c r="P27" s="16"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="22"/>
+      <c r="AB27" s="22"/>
+      <c r="AC27" s="22"/>
+      <c r="AD27" s="22"/>
+      <c r="AE27" s="16"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+      <c r="AQ27" s="19"/>
+      <c r="AR27" s="19"/>
+    </row>
+    <row r="28" spans="1:44">
+      <c r="B28" s="19"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="15"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="15"/>
+      <c r="L28" s="16"/>
+      <c r="M28" s="15"/>
+      <c r="N28" s="16"/>
+      <c r="O28" s="16"/>
+      <c r="P28" s="16"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="22"/>
+      <c r="AB28" s="22"/>
+      <c r="AC28" s="22"/>
+      <c r="AD28" s="22"/>
+      <c r="AE28" s="16"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+      <c r="AQ28" s="19"/>
+      <c r="AR28" s="19"/>
+    </row>
+    <row r="29" spans="1:44">
+      <c r="B29" s="19"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="21"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="15"/>
+      <c r="L29" s="16"/>
+      <c r="M29" s="15"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="16"/>
+      <c r="P29" s="16"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="22"/>
+      <c r="AB29" s="22"/>
+      <c r="AC29" s="22"/>
+      <c r="AD29" s="22"/>
+      <c r="AE29" s="16"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+      <c r="AQ29" s="19"/>
+      <c r="AR29" s="19"/>
+    </row>
+    <row r="30" spans="1:44">
+      <c r="B30" s="19"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="15"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="15"/>
+      <c r="L30" s="16"/>
+      <c r="M30" s="15"/>
+      <c r="N30" s="16"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="16"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="22"/>
+      <c r="AB30" s="22"/>
+      <c r="AC30" s="22"/>
+      <c r="AD30" s="22"/>
+      <c r="AE30" s="16"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+      <c r="AQ30" s="19"/>
+      <c r="AR30" s="19"/>
+    </row>
+    <row r="31" spans="1:44">
+      <c r="B31" s="19"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="15"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="15"/>
+      <c r="L31" s="16"/>
+      <c r="M31" s="15"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="16"/>
+      <c r="P31" s="16"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="16"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+      <c r="AQ31" s="19"/>
+      <c r="AR31" s="19"/>
+    </row>
+    <row r="32" spans="1:44">
+      <c r="J32" s="16"/>
+      <c r="L32" s="16"/>
+      <c r="N32" s="16"/>
+      <c r="O32" s="16"/>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="16"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+      <c r="AQ32" s="19"/>
+      <c r="AR32" s="19"/>
+    </row>
+    <row r="33" spans="6:44">
+      <c r="F33" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="AR22" s="3" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="1:44" ht="11.25" customHeight="1">
-      <c r="B25" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>327</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>328</v>
-      </c>
-      <c r="F25" s="15" t="s">
-        <v>352</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>329</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>324</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>331</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>332</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="O25" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="P25" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q25" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R25" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="S25" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="T25" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="U25" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="V25" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="W25" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="X25" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y25" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="Z25" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="AA25" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="AB25" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC25" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD25" s="19" t="s">
-        <v>356</v>
-      </c>
-      <c r="AE25" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="AF25" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="AG25" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="AH25" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="AI25" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="AJ25" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="AK25" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="AL25" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="AM25" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="AN25" s="22" t="s">
-        <v>361</v>
-      </c>
-      <c r="AO25" s="23"/>
-      <c r="AP25" s="24"/>
-      <c r="AQ25" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="AR25" s="16" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="26" spans="1:44">
-      <c r="B26" s="16"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="12"/>
-      <c r="L26" s="13"/>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="16"/>
-      <c r="R26" s="16"/>
-      <c r="S26" s="16"/>
-      <c r="T26" s="16"/>
-      <c r="U26" s="16"/>
-      <c r="V26" s="16"/>
-      <c r="W26" s="16"/>
-      <c r="X26" s="16"/>
-      <c r="Y26" s="16"/>
-      <c r="Z26" s="16"/>
-      <c r="AA26" s="19"/>
-      <c r="AB26" s="19"/>
-      <c r="AC26" s="19"/>
-      <c r="AD26" s="19"/>
-      <c r="AE26" s="13"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="16"/>
-      <c r="AK26" s="16"/>
-      <c r="AL26" s="16"/>
-      <c r="AM26" s="16"/>
-      <c r="AN26" s="22"/>
-      <c r="AO26" s="23"/>
-      <c r="AP26" s="24"/>
-      <c r="AQ26" s="16"/>
-      <c r="AR26" s="16"/>
-    </row>
-    <row r="27" spans="1:44">
-      <c r="B27" s="16"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="12"/>
-      <c r="L27" s="13"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="13"/>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="16"/>
-      <c r="R27" s="16"/>
-      <c r="S27" s="16"/>
-      <c r="T27" s="16"/>
-      <c r="U27" s="16"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16"/>
-      <c r="X27" s="16"/>
-      <c r="Y27" s="16"/>
-      <c r="Z27" s="16"/>
-      <c r="AA27" s="19"/>
-      <c r="AB27" s="19"/>
-      <c r="AC27" s="19"/>
-      <c r="AD27" s="19"/>
-      <c r="AE27" s="13"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="16"/>
-      <c r="AK27" s="16"/>
-      <c r="AL27" s="16"/>
-      <c r="AM27" s="16"/>
-      <c r="AN27" s="22"/>
-      <c r="AO27" s="23"/>
-      <c r="AP27" s="24"/>
-      <c r="AQ27" s="16"/>
-      <c r="AR27" s="16"/>
-    </row>
-    <row r="28" spans="1:44">
-      <c r="B28" s="16"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="12"/>
-      <c r="L28" s="13"/>
-      <c r="N28" s="13"/>
-      <c r="O28" s="13"/>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="16"/>
-      <c r="R28" s="16"/>
-      <c r="S28" s="16"/>
-      <c r="T28" s="16"/>
-      <c r="U28" s="16"/>
-      <c r="V28" s="16"/>
-      <c r="W28" s="16"/>
-      <c r="X28" s="16"/>
-      <c r="Y28" s="16"/>
-      <c r="Z28" s="16"/>
-      <c r="AA28" s="19"/>
-      <c r="AB28" s="19"/>
-      <c r="AC28" s="19"/>
-      <c r="AD28" s="19"/>
-      <c r="AE28" s="13"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
-      <c r="AK28" s="16"/>
-      <c r="AL28" s="16"/>
-      <c r="AM28" s="16"/>
-      <c r="AN28" s="22"/>
-      <c r="AO28" s="23"/>
-      <c r="AP28" s="24"/>
-      <c r="AQ28" s="16"/>
-      <c r="AR28" s="16"/>
-    </row>
-    <row r="29" spans="1:44">
-      <c r="B29" s="16"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="12"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="12"/>
-      <c r="L29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="16"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="16"/>
-      <c r="T29" s="16"/>
-      <c r="U29" s="16"/>
-      <c r="V29" s="16"/>
-      <c r="W29" s="16"/>
-      <c r="X29" s="16"/>
-      <c r="Y29" s="16"/>
-      <c r="Z29" s="16"/>
-      <c r="AA29" s="19"/>
-      <c r="AB29" s="19"/>
-      <c r="AC29" s="19"/>
-      <c r="AD29" s="19"/>
-      <c r="AE29" s="13"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="16"/>
-      <c r="AK29" s="16"/>
-      <c r="AL29" s="16"/>
-      <c r="AM29" s="16"/>
-      <c r="AN29" s="22"/>
-      <c r="AO29" s="23"/>
-      <c r="AP29" s="24"/>
-      <c r="AQ29" s="16"/>
-      <c r="AR29" s="16"/>
-    </row>
-    <row r="30" spans="1:44">
-      <c r="B30" s="16"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="13"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="12"/>
-      <c r="J30" s="13"/>
-      <c r="K30" s="12"/>
-      <c r="L30" s="13"/>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="16"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="16"/>
-      <c r="T30" s="16"/>
-      <c r="U30" s="16"/>
-      <c r="V30" s="16"/>
-      <c r="W30" s="16"/>
-      <c r="X30" s="16"/>
-      <c r="Y30" s="16"/>
-      <c r="Z30" s="16"/>
-      <c r="AA30" s="19"/>
-      <c r="AB30" s="19"/>
-      <c r="AC30" s="19"/>
-      <c r="AD30" s="19"/>
-      <c r="AE30" s="13"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="16"/>
-      <c r="AK30" s="16"/>
-      <c r="AL30" s="16"/>
-      <c r="AM30" s="16"/>
-      <c r="AN30" s="22"/>
-      <c r="AO30" s="23"/>
-      <c r="AP30" s="24"/>
-      <c r="AQ30" s="16"/>
-      <c r="AR30" s="16"/>
-    </row>
-    <row r="31" spans="1:44">
-      <c r="B31" s="16"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="13"/>
-      <c r="H31" s="13"/>
-      <c r="I31" s="12"/>
-      <c r="J31" s="13"/>
-      <c r="K31" s="12"/>
-      <c r="L31" s="13"/>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="16"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="16"/>
-      <c r="T31" s="16"/>
-      <c r="U31" s="16"/>
-      <c r="V31" s="16"/>
-      <c r="W31" s="16"/>
-      <c r="X31" s="16"/>
-      <c r="Y31" s="16"/>
-      <c r="Z31" s="16"/>
-      <c r="AA31" s="19"/>
-      <c r="AB31" s="19"/>
-      <c r="AC31" s="19"/>
-      <c r="AD31" s="19"/>
-      <c r="AE31" s="13"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="16"/>
-      <c r="AK31" s="16"/>
-      <c r="AL31" s="16"/>
-      <c r="AM31" s="16"/>
-      <c r="AN31" s="22"/>
-      <c r="AO31" s="23"/>
-      <c r="AP31" s="24"/>
-      <c r="AQ31" s="16"/>
-      <c r="AR31" s="16"/>
-    </row>
-    <row r="32" spans="1:44">
-      <c r="J32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="16"/>
-      <c r="T32" s="16"/>
-      <c r="U32" s="16"/>
-      <c r="V32" s="16"/>
-      <c r="W32" s="16"/>
-      <c r="X32" s="16"/>
-      <c r="Y32" s="16"/>
-      <c r="Z32" s="16"/>
-      <c r="AA32" s="19"/>
-      <c r="AB32" s="19"/>
-      <c r="AC32" s="19"/>
-      <c r="AD32" s="19"/>
-      <c r="AE32" s="13"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="16"/>
-      <c r="AL32" s="16"/>
-      <c r="AM32" s="16"/>
-      <c r="AN32" s="22"/>
-      <c r="AO32" s="23"/>
-      <c r="AP32" s="24"/>
-      <c r="AQ32" s="16"/>
-      <c r="AR32" s="16"/>
-    </row>
-    <row r="33" spans="6:44">
-      <c r="F33" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="J33" s="13"/>
-      <c r="L33" s="13"/>
-      <c r="N33" s="13"/>
-      <c r="O33" s="13"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="16"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="16"/>
-      <c r="T33" s="16"/>
-      <c r="U33" s="16"/>
-      <c r="V33" s="16"/>
-      <c r="W33" s="16"/>
-      <c r="X33" s="16"/>
-      <c r="Y33" s="16"/>
-      <c r="Z33" s="16"/>
-      <c r="AA33" s="19"/>
-      <c r="AB33" s="19"/>
-      <c r="AC33" s="19"/>
-      <c r="AD33" s="19"/>
-      <c r="AE33" s="13"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="16"/>
-      <c r="AK33" s="16"/>
-      <c r="AL33" s="16"/>
-      <c r="AM33" s="16"/>
-      <c r="AN33" s="22"/>
-      <c r="AO33" s="23"/>
-      <c r="AP33" s="24"/>
-      <c r="AQ33" s="16"/>
-      <c r="AR33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="L33" s="16"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="22"/>
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22"/>
+      <c r="AE33" s="16"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+      <c r="AQ33" s="19"/>
+      <c r="AR33" s="19"/>
     </row>
     <row r="34" spans="6:44" ht="101.25">
       <c r="F34" s="8" t="s">
-        <v>354</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="AB34" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="40">
-    <mergeCell ref="AM25:AM33"/>
-    <mergeCell ref="AB25:AB33"/>
-    <mergeCell ref="AN25:AP33"/>
+  <mergeCells count="43">
     <mergeCell ref="B25:B31"/>
     <mergeCell ref="AK25:AK33"/>
     <mergeCell ref="AL25:AL33"/>
@@ -6993,6 +6889,10 @@
     <mergeCell ref="G25:G31"/>
     <mergeCell ref="I25:I31"/>
     <mergeCell ref="J25:J33"/>
+    <mergeCell ref="AR25:AR33"/>
+    <mergeCell ref="S25:S33"/>
+    <mergeCell ref="AI25:AI33"/>
+    <mergeCell ref="H25:H31"/>
     <mergeCell ref="R25:R33"/>
     <mergeCell ref="W25:W33"/>
     <mergeCell ref="X25:X33"/>
@@ -7002,11 +6902,8 @@
     <mergeCell ref="Q25:Q33"/>
     <mergeCell ref="T25:T33"/>
     <mergeCell ref="U25:U33"/>
-    <mergeCell ref="AH25:AH33"/>
-    <mergeCell ref="AR25:AR33"/>
-    <mergeCell ref="S25:S33"/>
-    <mergeCell ref="AI25:AI33"/>
-    <mergeCell ref="H25:H31"/>
+    <mergeCell ref="AM25:AM33"/>
+    <mergeCell ref="AB25:AB33"/>
     <mergeCell ref="F25:F31"/>
     <mergeCell ref="AQ25:AQ33"/>
     <mergeCell ref="AA25:AA33"/>
@@ -7017,6 +6914,11 @@
     <mergeCell ref="AF25:AF33"/>
     <mergeCell ref="AG25:AG33"/>
     <mergeCell ref="V25:V33"/>
+    <mergeCell ref="AN25:AN33"/>
+    <mergeCell ref="AO25:AO33"/>
+    <mergeCell ref="AP25:AP33"/>
+    <mergeCell ref="M25:M31"/>
+    <mergeCell ref="AH25:AH33"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
